--- a/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1631</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3044,4 +3045,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>217.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3747,4 +3748,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3756,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3767,17 +3768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3787,14 +3808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.380000000000001</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>208.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3803,14 +3846,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.01</v>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5293</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3819,14 +3884,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.85</v>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3835,13 +3922,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7821</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>29.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4421,7 +4422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4432,17 +4433,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4452,14 +4473,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.37</v>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4468,14 +4511,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.380000000000001</v>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4484,14 +4549,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.01</v>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4500,14 +4587,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.85</v>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4516,13 +4625,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>29.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4668,7 +4669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4679,17 +4680,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4699,14 +4720,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.26</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4715,14 +4758,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.37</v>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4731,14 +4796,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.380000000000001</v>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5997</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4747,14 +4834,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.01</v>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4763,14 +4872,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.85</v>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4779,13 +4910,905 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>29.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>7.28</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>1.26</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>13.37</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>8.380000000000001</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>9.01</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>8.85</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>29.41</v>
       </c>
     </row>
@@ -600,6 +617,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1605,7 +2778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1851,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2515,7 +3688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3217,7 +4390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3843,7 +5016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4621,7 +5794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300357-我武生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>5.52</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>7.28</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>1.26</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>13.37</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>8.380000000000001</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>9.01</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>8.85</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1226 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>29.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>147.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>136.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.0386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7383</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3811</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3705</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3033</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1830,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013554</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013555</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016854</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1772,7 +4331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2778,7 +5337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3024,7 +5583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3688,7 +6247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4390,7 +6949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5016,7 +7575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5792,1200 +8351,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发稳健增长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>282.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>54.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.3612</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000751</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>147.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.4693</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004851</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发医疗保健股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>136.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.0386</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>377020</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上投摩根内需动力混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6641</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>070002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>35.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2498</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001230</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华医药科技股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.73</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8410</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010110</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发医药健康混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>53.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7454</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000711</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7383</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519021</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰金鼎价值混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5068</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009163</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发医疗保健股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4758</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000477</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发主题领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3811</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000117</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发轮动配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3705</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>070022</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实领先成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3584</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519171</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3346</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000073</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根成长动力混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3033</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000870</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实新收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2933</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001048</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>14.02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2818</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005112</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银华中证全指医药卫生指数增强</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2019</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010111</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发医药健康混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1663</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009326</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发稳健增长混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>54.55</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1543</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>020015</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国泰区位优势混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>84.55</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1412</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006981</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中金新医药股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1263</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007388</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>上投摩根研究驱动股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>377150</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>上投摩根健康品质生活混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002179</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华安事件驱动量化策略混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007005</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中金新医药股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>290005</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰信优势增长混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>79.94</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>168301</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002654</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>上投摩根策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007389</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>上投摩根研究驱动股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.37</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>